--- a/data/excel_case/common.xlsx
+++ b/data/excel_case/common.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27260" windowHeight="12220"/>
+    <workbookView windowWidth="28060" windowHeight="12180"/>
   </bookViews>
   <sheets>
     <sheet name="数字商家组-导入模板" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78">
   <si>
     <t>接口id</t>
   </si>
@@ -45,6 +45,7 @@
   <si>
     <t>{"one_model":{
     "client":1,
+    "customer_id":271,
     "company":"北京有车以后信息科技有限公司",
     "name":"卢志豪接口测试",
     "identity":"",
@@ -73,6 +74,7 @@
 },
 "many_model":{
     "client":1,
+    "customer_id":271,
     "company":"北京有车以后信息科技有限公司",
     "name":"卢志豪接口测试",
     "identity":"",
@@ -101,6 +103,7 @@
 },
 "whole_many_model":{
         "client":1,
+        "customer_id":271,
         "company":"卢志豪接口测试数据",
         "belong_user_id":47317,
         "name":"卢卢",
@@ -151,6 +154,11 @@
 </t>
   </si>
   <si>
+    <t>1、请求body的变量需要加上“”，
+2、请求body有变量，则替换中必有依赖列表
+3、用例中需要用逗号隔开，不用不行</t>
+  </si>
+  <si>
     <t>小程序B端订单列表</t>
   </si>
   <si>
@@ -401,15 +409,196 @@
   <si>
     <t>past_due：过期的活动</t>
   </si>
+  <si>
+    <t>打款确认</t>
+  </si>
+  <si>
+    <t>/iyourcar_autobuy/backend/finance_manage/payment/confirm</t>
+  </si>
+  <si>
+    <t>{
+    "vouchers_null":{
+        "id":20,
+        "pay_way":3,
+        "pay_time":"2022-04-25 10:00:24"
+    }
+}</t>
+  </si>
+  <si>
+    <t>vouchers_null：凭证为空</t>
+  </si>
+  <si>
+    <t>新增B端保单</t>
+  </si>
+  <si>
+    <t>/iyourcar_autobuy/backend/insurance/add</t>
+  </si>
+  <si>
+    <t>{
+    "base_add":{
+        "order_type":"1",
+        "order_no":"",
+        "name":"卢志豪自动化数据",
+        "phone":"18545125412",
+        "belong_user_id":46988,
+        "property":"1",
+        "channel":2,
+        "sign_time":"2022-05-05 10:38:08",
+        "insurance_rebates":[
+            {
+                "rebate_type":1,
+                "insurance_type":"1",
+                "attachment":"http://privres.suv666.com/test/autobuy/insurance/attachment/1330a375e299bbdb081fb428e648bfab.png",
+                "amount":100000,
+                "ratio":0.1,
+                "final_amount":10000
+            },
+            {
+                "rebate_type":2,
+                "insurance_type":"1",
+                "amount":100000,
+                "ratio":0.07,
+                "final_amount":7000
+            }
+        ],
+        "dealer_name":"卢志豪",
+        "card_name":"卢志豪",
+        "card_no":"123456",
+        "card_bank_name":"卢志豪",
+        "card_branch_name":"卢志豪"
+    }
+}</t>
+  </si>
+  <si>
+    <t>base_add：基础新增</t>
+  </si>
+  <si>
+    <t>保单列表</t>
+  </si>
+  <si>
+    <t>/iyourcar_autobuy/backend/insurance/list</t>
+  </si>
+  <si>
+    <t>{
+    "base_query":{
+        "page_id":1,
+        "page_size":10,
+        "querys":[
+        ]
+    }
+}</t>
+  </si>
+  <si>
+    <t>[
+    {
+    "is_extract":1,
+    "extract_expr":"$.result.list[0].id",
+    "rely":"/iyourcar_autobuy/backend/insurance/list__id"
+}
+]</t>
+  </si>
+  <si>
+    <t>base_query：基础查询</t>
+  </si>
+  <si>
+    <t>新增保单收款</t>
+  </si>
+  <si>
+    <t>/iyourcar_autobuy/backend/insurance/add_income</t>
+  </si>
+  <si>
+    <t>{
+    "amount_2":{
+        "biz_id":"$#/iyourcar_autobuy/backend/insurance/list__id#",
+        "card_bank_name":"中国银行",
+        "card_no":"123456",
+        "trade_no":"",
+        "amount":200,
+        "pay_time":"2022-05-05 10:46:47",
+        "pay_vouchers":"http://privres.suv666.com/test/autobuy/receipt/common/bf84b62b400cfc93bd9f2015521e9e13.png"
+    }
+}</t>
+  </si>
+  <si>
+    <t>[{
+    "is_extract":0,
+     "rely_list":[{
+        "url":"/iyourcar_autobuy/backend/insurance/list__id",
+        "body_key":"base_query"
+    }]
+}]</t>
+  </si>
+  <si>
+    <t>amount_2：金额为2块</t>
+  </si>
+  <si>
+    <t>收款单列表</t>
+  </si>
+  <si>
+    <t>/iyourcar_autobuy/backend/finance_manage/income/list</t>
+  </si>
+  <si>
+    <t>{
+    "base_query":{
+        "page_id":1,
+        "page_size":10,
+        "querys":[
+            {
+                "col":"biz_no",
+                "cond":"equalTo",
+                "val":"$#/iyourcar_autobuy/backend/insurance/list__id#"
+            }
+        ]
+    }
+}</t>
+  </si>
+  <si>
+    <t>[
+    {
+    "is_extract":1,
+    "extract_expr":"$.result.list[0].id",
+    "rely":"/iyourcar_autobuy/backend/finance_manage/income/list__id"
+}
+]</t>
+  </si>
+  <si>
+    <t>收款审核</t>
+  </si>
+  <si>
+    <t>/iyourcar_autobuy/backend/finance_manage/income/audit</t>
+  </si>
+  <si>
+    <t>{
+    "audit_successful_actual":{
+        "id":"$#/iyourcar_autobuy/backend/finance_manage/income/list__id#",
+        "audit_status":2,
+        "status":2,
+        "trade_no":"123123",
+        "income_vouchers":"http://privres.suv666.com/test/autobuy/receipt/common/ab31a44604dcbe6b94a1c54be000b193.png"
+    }
+}</t>
+  </si>
+  <si>
+    <t>[{
+    "is_extract":0,
+     "rely_list":[{
+        "url":"/iyourcar_autobuy/backend/finance_manage/income/list__id",
+        "body_key":"base_query"
+    }]
+}]</t>
+  </si>
+  <si>
+    <t>audit_successful_actual：审核成功--实收</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -435,10 +624,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -451,31 +641,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -486,6 +652,14 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -520,30 +694,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -559,7 +712,43 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -580,175 +769,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -787,6 +976,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -797,6 +1001,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -816,17 +1031,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -842,21 +1046,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -870,142 +1059,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1015,12 +1204,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1347,10 +1533,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" topLeftCell="B9" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.64285714285714" defaultRowHeight="17.6"/>
@@ -1392,7 +1578,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
-      <c r="M1" s="3"/>
+      <c r="M1" s="2"/>
     </row>
     <row r="2" ht="409.5" spans="1:13">
       <c r="A2">
@@ -1416,228 +1602,366 @@
       <c r="G2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="1"/>
+      <c r="H2" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
-      <c r="M2" s="3"/>
+      <c r="M2" s="2"/>
     </row>
     <row r="3" ht="229" spans="1:13">
       <c r="A3">
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
-      <c r="M3" s="3"/>
+      <c r="M3" s="2"/>
     </row>
     <row r="4" ht="124" spans="1:13">
       <c r="A4">
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
-      <c r="M4" s="3"/>
+      <c r="M4" s="2"/>
     </row>
     <row r="5" ht="159" spans="1:13">
       <c r="A5">
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
-      <c r="M5" s="3"/>
+      <c r="M5" s="2"/>
     </row>
     <row r="6" ht="176" spans="1:13">
       <c r="A6">
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
-      <c r="M6" s="3"/>
+      <c r="M6" s="2"/>
     </row>
     <row r="7" ht="229" spans="1:13">
       <c r="A7">
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D7" t="s">
         <v>8</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
-      <c r="M7" s="3"/>
+      <c r="M7" s="2"/>
     </row>
     <row r="8" ht="229" spans="1:13">
       <c r="A8">
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D8" t="s">
         <v>8</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
-      <c r="M8" s="3"/>
+      <c r="M8" s="2"/>
     </row>
     <row r="9" ht="300" spans="1:13">
       <c r="A9">
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D9" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>44</v>
+      <c r="E9" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
-      <c r="M9" s="3"/>
+      <c r="M9" s="2"/>
     </row>
     <row r="10" ht="405" spans="1:13">
       <c r="A10">
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D10" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F10" s="2" t="s">
+      <c r="E10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J10" s="1"/>
-      <c r="M10" s="3"/>
+      <c r="M10" s="2"/>
     </row>
-    <row r="11" spans="10:13">
+    <row r="11" ht="124" spans="1:13">
+      <c r="A11">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" t="s">
+        <v>54</v>
+      </c>
       <c r="J11" s="1"/>
-      <c r="M11" s="3"/>
+      <c r="M11" s="2"/>
+    </row>
+    <row r="12" ht="409.5" spans="1:7">
+      <c r="A12">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" ht="141" spans="1:7">
+      <c r="A13">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" ht="212" spans="1:7">
+      <c r="A14">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" ht="229" spans="1:7">
+      <c r="A15">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" ht="194" spans="1:7">
+      <c r="A16">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G16" t="s">
+        <v>77</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
